--- a/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja4.xlsx
+++ b/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja4.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t xml:space="preserve">I N F O R M E   E S T A D I S T I C O</t>
   </si>
@@ -29,7 +29,7 @@
     <t xml:space="preserve">PERSONAS ATENDIDAS</t>
   </si>
   <si>
-    <t xml:space="preserve">759</t>
+    <t xml:space="preserve">356</t>
   </si>
   <si>
     <t xml:space="preserve">(Préstamo de Exped. P./su consulta)</t>
@@ -41,7 +41,7 @@
     <t xml:space="preserve">ASUNTOS CANALIZADOS.</t>
   </si>
   <si>
-    <t xml:space="preserve">120</t>
+    <t xml:space="preserve">0</t>
   </si>
   <si>
     <t xml:space="preserve">2.2999999999999998</t>
@@ -50,13 +50,13 @@
     <t xml:space="preserve">INFORMES PROPORCIONADOS.</t>
   </si>
   <si>
-    <t xml:space="preserve">80</t>
+    <t xml:space="preserve">3</t>
   </si>
   <si>
     <t xml:space="preserve">TOTAL:</t>
   </si>
   <si>
-    <t xml:space="preserve">959</t>
+    <t xml:space="preserve">359</t>
   </si>
   <si>
     <t xml:space="preserve">P  R  I  M  E  R  A     I  N  S  T  A  N  C  I  A</t>
@@ -74,7 +74,7 @@
     <t xml:space="preserve">DE EJECUCION.</t>
   </si>
   <si>
-    <t xml:space="preserve">4</t>
+    <t xml:space="preserve">9</t>
   </si>
   <si>
     <t xml:space="preserve">3.2000000000000002</t>
@@ -83,7 +83,10 @@
     <t xml:space="preserve">OTROS...</t>
   </si>
   <si>
-    <t xml:space="preserve">763</t>
+    <t xml:space="preserve">523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">532</t>
   </si>
   <si>
     <t xml:space="preserve">IV.- DILIGENCIAS PRACTICADAS</t>
@@ -98,25 +101,31 @@
     <t xml:space="preserve">a ) Notificaciones</t>
   </si>
   <si>
-    <t xml:space="preserve">515</t>
+    <t xml:space="preserve">242</t>
   </si>
   <si>
     <t xml:space="preserve">b ) Inspecciones oculares</t>
   </si>
   <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
     <t xml:space="preserve">c ) Citaciones</t>
   </si>
   <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
     <t xml:space="preserve">d ) Otras</t>
   </si>
   <si>
-    <t xml:space="preserve">170</t>
+    <t xml:space="preserve">165</t>
   </si>
   <si>
     <t xml:space="preserve">TOTAL :</t>
   </si>
   <si>
-    <t xml:space="preserve">693</t>
+    <t xml:space="preserve">421</t>
   </si>
   <si>
     <t xml:space="preserve">4.2000000000000002</t>
@@ -125,7 +134,7 @@
     <t xml:space="preserve">EMPLAZAMIENTOS.</t>
   </si>
   <si>
-    <t xml:space="preserve">171</t>
+    <t xml:space="preserve">34</t>
   </si>
   <si>
     <t xml:space="preserve">4.2999999999999998</t>
@@ -137,7 +146,7 @@
     <t xml:space="preserve">4.3.1.- EN FORMA PRESENCIAL.</t>
   </si>
   <si>
-    <t xml:space="preserve">141</t>
+    <t xml:space="preserve">69</t>
   </si>
   <si>
     <t xml:space="preserve">(No incluir las de Itinerancias.)</t>
@@ -146,10 +155,7 @@
     <t xml:space="preserve">4.3.2.- VÍA REMOTA.</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FEBRERO</t>
+    <t xml:space="preserve">DICIEMBRE</t>
   </si>
   <si>
     <t xml:space="preserve">HOJA 4</t>
@@ -518,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="H1" t="n">
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -841,7 +847,7 @@
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="H29"/>
     </row>
@@ -865,7 +871,7 @@
       </c>
       <c r="F31"/>
       <c r="G31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H31"/>
     </row>
@@ -881,7 +887,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B33"/>
       <c r="C33"/>
@@ -903,10 +909,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
@@ -918,14 +924,14 @@
     <row r="36">
       <c r="A36"/>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H36"/>
     </row>
@@ -942,14 +948,14 @@
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38"/>
       <c r="F38"/>
       <c r="G38" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="H38"/>
     </row>
@@ -966,14 +972,14 @@
     <row r="40">
       <c r="A40"/>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40"/>
       <c r="F40"/>
       <c r="G40" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H40"/>
     </row>
@@ -990,14 +996,14 @@
     <row r="42">
       <c r="A42"/>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C42"/>
       <c r="D42"/>
       <c r="E42"/>
       <c r="F42"/>
       <c r="G42" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H42"/>
     </row>
@@ -1017,11 +1023,11 @@
       <c r="C44"/>
       <c r="D44"/>
       <c r="E44" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F44"/>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H44"/>
     </row>
@@ -1047,17 +1053,17 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47"/>
       <c r="F47"/>
       <c r="G47" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H47"/>
     </row>
@@ -1073,10 +1079,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C49"/>
       <c r="D49"/>
@@ -1098,21 +1104,21 @@
     <row r="51">
       <c r="A51"/>
       <c r="B51" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C51"/>
       <c r="D51"/>
       <c r="E51"/>
       <c r="F51"/>
       <c r="G51" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H51"/>
     </row>
     <row r="52">
       <c r="A52"/>
       <c r="B52" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C52"/>
       <c r="D52"/>
@@ -1134,14 +1140,14 @@
     <row r="54">
       <c r="A54"/>
       <c r="B54" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C54"/>
       <c r="D54"/>
       <c r="E54"/>
       <c r="F54"/>
       <c r="G54" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="H54"/>
     </row>
@@ -1169,15 +1175,15 @@
       <c r="A57"/>
       <c r="B57"/>
       <c r="C57" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D57" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E57"/>
       <c r="F57"/>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H57"/>
     </row>

--- a/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja4.xlsx
+++ b/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja4.xlsx
@@ -20,6 +20,9 @@
     <t xml:space="preserve">Distrito:</t>
   </si>
   <si>
+    <t xml:space="preserve">H01_01</t>
+  </si>
+  <si>
     <t xml:space="preserve">II.- ATENCION E INFORMACION AL PUBLICO (Audiencia Campesina)</t>
   </si>
   <si>
@@ -29,7 +32,7 @@
     <t xml:space="preserve">PERSONAS ATENDIDAS</t>
   </si>
   <si>
-    <t xml:space="preserve">356</t>
+    <t xml:space="preserve">H04_01</t>
   </si>
   <si>
     <t xml:space="preserve">(Préstamo de Exped. P./su consulta)</t>
@@ -41,24 +44,24 @@
     <t xml:space="preserve">ASUNTOS CANALIZADOS.</t>
   </si>
   <si>
+    <t xml:space="preserve">H04_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2999999999999998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INFORMES PROPORCIONADOS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H04_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL:</t>
+  </si>
+  <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">2.2999999999999998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INFORMES PROPORCIONADOS.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">359</t>
-  </si>
-  <si>
     <t xml:space="preserve">P  R  I  M  E  R  A     I  N  S  T  A  N  C  I  A</t>
   </si>
   <si>
@@ -74,7 +77,7 @@
     <t xml:space="preserve">DE EJECUCION.</t>
   </si>
   <si>
-    <t xml:space="preserve">9</t>
+    <t xml:space="preserve">H04_04</t>
   </si>
   <si>
     <t xml:space="preserve">3.2000000000000002</t>
@@ -83,10 +86,7 @@
     <t xml:space="preserve">OTROS...</t>
   </si>
   <si>
-    <t xml:space="preserve">523</t>
-  </si>
-  <si>
-    <t xml:space="preserve">532</t>
+    <t xml:space="preserve">H04_05</t>
   </si>
   <si>
     <t xml:space="preserve">IV.- DILIGENCIAS PRACTICADAS</t>
@@ -101,40 +101,37 @@
     <t xml:space="preserve">a ) Notificaciones</t>
   </si>
   <si>
-    <t xml:space="preserve">242</t>
+    <t xml:space="preserve">H04_06</t>
   </si>
   <si>
     <t xml:space="preserve">b ) Inspecciones oculares</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
+    <t xml:space="preserve">H04_07</t>
   </si>
   <si>
     <t xml:space="preserve">c ) Citaciones</t>
   </si>
   <si>
-    <t xml:space="preserve">12</t>
+    <t xml:space="preserve">H04_08</t>
   </si>
   <si>
     <t xml:space="preserve">d ) Otras</t>
   </si>
   <si>
-    <t xml:space="preserve">165</t>
+    <t xml:space="preserve">H04_09</t>
   </si>
   <si>
     <t xml:space="preserve">TOTAL :</t>
   </si>
   <si>
-    <t xml:space="preserve">421</t>
-  </si>
-  <si>
     <t xml:space="preserve">4.2000000000000002</t>
   </si>
   <si>
     <t xml:space="preserve">EMPLAZAMIENTOS.</t>
   </si>
   <si>
-    <t xml:space="preserve">34</t>
+    <t xml:space="preserve">H04_10</t>
   </si>
   <si>
     <t xml:space="preserve">4.2999999999999998</t>
@@ -146,7 +143,7 @@
     <t xml:space="preserve">4.3.1.- EN FORMA PRESENCIAL.</t>
   </si>
   <si>
-    <t xml:space="preserve">69</t>
+    <t xml:space="preserve">H04_11</t>
   </si>
   <si>
     <t xml:space="preserve">(No incluir las de Itinerancias.)</t>
@@ -155,7 +152,10 @@
     <t xml:space="preserve">4.3.2.- VÍA REMOTA.</t>
   </si>
   <si>
-    <t xml:space="preserve">DICIEMBRE</t>
+    <t xml:space="preserve">H04_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H01_03</t>
   </si>
   <si>
     <t xml:space="preserve">HOJA 4</t>
@@ -523,8 +523,8 @@
       <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="n">
-        <v>34</v>
+      <c r="H1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
@@ -579,7 +579,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
@@ -611,24 +611,24 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -649,17 +649,17 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H13"/>
     </row>
@@ -675,17 +675,17 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H15"/>
     </row>
@@ -705,11 +705,11 @@
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F17"/>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H17"/>
     </row>
@@ -735,7 +735,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B20"/>
       <c r="C20"/>
@@ -767,7 +767,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B23"/>
       <c r="C23"/>
@@ -789,7 +789,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
@@ -811,17 +811,17 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
       <c r="G27" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H27"/>
     </row>
@@ -837,17 +837,17 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H29"/>
     </row>
@@ -867,11 +867,11 @@
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F31"/>
       <c r="G31" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H31"/>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="F44"/>
       <c r="G44" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="H44"/>
     </row>
@@ -1053,17 +1053,17 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" t="s">
         <v>38</v>
-      </c>
-      <c r="B47" t="s">
-        <v>39</v>
       </c>
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47"/>
       <c r="F47"/>
       <c r="G47" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H47"/>
     </row>
@@ -1079,10 +1079,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" t="s">
         <v>41</v>
-      </c>
-      <c r="B49" t="s">
-        <v>42</v>
       </c>
       <c r="C49"/>
       <c r="D49"/>
@@ -1104,21 +1104,21 @@
     <row r="51">
       <c r="A51"/>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C51"/>
       <c r="D51"/>
       <c r="E51"/>
       <c r="F51"/>
       <c r="G51" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H51"/>
     </row>
     <row r="52">
       <c r="A52"/>
       <c r="B52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C52"/>
       <c r="D52"/>
@@ -1140,14 +1140,14 @@
     <row r="54">
       <c r="A54"/>
       <c r="B54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C54"/>
       <c r="D54"/>
       <c r="E54"/>
       <c r="F54"/>
       <c r="G54" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H54"/>
     </row>

--- a/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja4.xlsx
+++ b/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja4.xlsx
@@ -20,9 +20,6 @@
     <t xml:space="preserve">Distrito:</t>
   </si>
   <si>
-    <t xml:space="preserve">H01_01</t>
-  </si>
-  <si>
     <t xml:space="preserve">II.- ATENCION E INFORMACION AL PUBLICO (Audiencia Campesina)</t>
   </si>
   <si>
@@ -32,7 +29,7 @@
     <t xml:space="preserve">PERSONAS ATENDIDAS</t>
   </si>
   <si>
-    <t xml:space="preserve">H04_01</t>
+    <t xml:space="preserve">356</t>
   </si>
   <si>
     <t xml:space="preserve">(Préstamo de Exped. P./su consulta)</t>
@@ -44,7 +41,7 @@
     <t xml:space="preserve">ASUNTOS CANALIZADOS.</t>
   </si>
   <si>
-    <t xml:space="preserve">H04_02</t>
+    <t xml:space="preserve">0</t>
   </si>
   <si>
     <t xml:space="preserve">2.2999999999999998</t>
@@ -53,13 +50,13 @@
     <t xml:space="preserve">INFORMES PROPORCIONADOS.</t>
   </si>
   <si>
-    <t xml:space="preserve">H04_03</t>
+    <t xml:space="preserve">3</t>
   </si>
   <si>
     <t xml:space="preserve">TOTAL:</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
+    <t xml:space="preserve">359</t>
   </si>
   <si>
     <t xml:space="preserve">P  R  I  M  E  R  A     I  N  S  T  A  N  C  I  A</t>
@@ -77,7 +74,7 @@
     <t xml:space="preserve">DE EJECUCION.</t>
   </si>
   <si>
-    <t xml:space="preserve">H04_04</t>
+    <t xml:space="preserve">9</t>
   </si>
   <si>
     <t xml:space="preserve">3.2000000000000002</t>
@@ -86,7 +83,10 @@
     <t xml:space="preserve">OTROS...</t>
   </si>
   <si>
-    <t xml:space="preserve">H04_05</t>
+    <t xml:space="preserve">523</t>
+  </si>
+  <si>
+    <t xml:space="preserve">532</t>
   </si>
   <si>
     <t xml:space="preserve">IV.- DILIGENCIAS PRACTICADAS</t>
@@ -101,37 +101,40 @@
     <t xml:space="preserve">a ) Notificaciones</t>
   </si>
   <si>
-    <t xml:space="preserve">H04_06</t>
+    <t xml:space="preserve">242</t>
   </si>
   <si>
     <t xml:space="preserve">b ) Inspecciones oculares</t>
   </si>
   <si>
-    <t xml:space="preserve">H04_07</t>
+    <t xml:space="preserve">2</t>
   </si>
   <si>
     <t xml:space="preserve">c ) Citaciones</t>
   </si>
   <si>
-    <t xml:space="preserve">H04_08</t>
+    <t xml:space="preserve">12</t>
   </si>
   <si>
     <t xml:space="preserve">d ) Otras</t>
   </si>
   <si>
-    <t xml:space="preserve">H04_09</t>
+    <t xml:space="preserve">165</t>
   </si>
   <si>
     <t xml:space="preserve">TOTAL :</t>
   </si>
   <si>
+    <t xml:space="preserve">421</t>
+  </si>
+  <si>
     <t xml:space="preserve">4.2000000000000002</t>
   </si>
   <si>
     <t xml:space="preserve">EMPLAZAMIENTOS.</t>
   </si>
   <si>
-    <t xml:space="preserve">H04_10</t>
+    <t xml:space="preserve">34</t>
   </si>
   <si>
     <t xml:space="preserve">4.2999999999999998</t>
@@ -143,7 +146,7 @@
     <t xml:space="preserve">4.3.1.- EN FORMA PRESENCIAL.</t>
   </si>
   <si>
-    <t xml:space="preserve">H04_11</t>
+    <t xml:space="preserve">69</t>
   </si>
   <si>
     <t xml:space="preserve">(No incluir las de Itinerancias.)</t>
@@ -152,10 +155,7 @@
     <t xml:space="preserve">4.3.2.- VÍA REMOTA.</t>
   </si>
   <si>
-    <t xml:space="preserve">H04_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H01_03</t>
+    <t xml:space="preserve">DICIEMBRE</t>
   </si>
   <si>
     <t xml:space="preserve">HOJA 4</t>
@@ -523,8 +523,8 @@
       <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
-        <v>2</v>
+      <c r="H1" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -579,7 +579,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
@@ -611,24 +611,24 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
         <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -649,17 +649,17 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
         <v>8</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H13"/>
     </row>
@@ -675,17 +675,17 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
         <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H15"/>
     </row>
@@ -705,11 +705,11 @@
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17"/>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H17"/>
     </row>
@@ -735,7 +735,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20"/>
       <c r="C20"/>
@@ -767,7 +767,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23"/>
       <c r="C23"/>
@@ -789,7 +789,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
@@ -811,17 +811,17 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" t="s">
         <v>19</v>
-      </c>
-      <c r="B27" t="s">
-        <v>20</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27"/>
       <c r="F27"/>
       <c r="G27" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H27"/>
     </row>
@@ -837,17 +837,17 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" t="s">
         <v>22</v>
-      </c>
-      <c r="B29" t="s">
-        <v>23</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H29"/>
     </row>
@@ -867,11 +867,11 @@
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F31"/>
       <c r="G31" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H31"/>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="F44"/>
       <c r="G44" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="H44"/>
     </row>
@@ -1053,17 +1053,17 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47"/>
       <c r="F47"/>
       <c r="G47" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H47"/>
     </row>
@@ -1079,10 +1079,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B49" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C49"/>
       <c r="D49"/>
@@ -1104,21 +1104,21 @@
     <row r="51">
       <c r="A51"/>
       <c r="B51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C51"/>
       <c r="D51"/>
       <c r="E51"/>
       <c r="F51"/>
       <c r="G51" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H51"/>
     </row>
     <row r="52">
       <c r="A52"/>
       <c r="B52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C52"/>
       <c r="D52"/>
@@ -1140,14 +1140,14 @@
     <row r="54">
       <c r="A54"/>
       <c r="B54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C54"/>
       <c r="D54"/>
       <c r="E54"/>
       <c r="F54"/>
       <c r="G54" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H54"/>
     </row>

--- a/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja4.xlsx
+++ b/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja4.xlsx
@@ -155,7 +155,7 @@
     <t xml:space="preserve">4.3.2.- VÍA REMOTA.</t>
   </si>
   <si>
-    <t xml:space="preserve">DICIEMBRE</t>
+    <t xml:space="preserve">Diciembre</t>
   </si>
   <si>
     <t xml:space="preserve">HOJA 4</t>
